--- a/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.92397897938436</v>
+        <v>91.96751758983197</v>
       </c>
       <c r="D2" t="n">
-        <v>12.27418349218293</v>
+        <v>11.52950826701348</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.46782612781088</v>
+        <v>92.83072539415269</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62423189693198</v>
+        <v>10.32856364722601</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.57235320041914</v>
+        <v>91.16180396790506</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4340946102695</v>
+        <v>10.10811537248896</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.80673977350965</v>
+        <v>91.2854600413696</v>
       </c>
       <c r="D5" t="n">
-        <v>9.859936823018446</v>
+        <v>10.01532430958861</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.54731448137274</v>
+        <v>87.99162629249247</v>
       </c>
       <c r="D6" t="n">
-        <v>11.36385744446222</v>
+        <v>10.75107030841296</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.51178881561422</v>
+        <v>87.59485370613029</v>
       </c>
       <c r="D7" t="n">
-        <v>10.29717681530565</v>
+        <v>10.04964761859956</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.90550522916105</v>
+        <v>86.28736841658912</v>
       </c>
       <c r="D8" t="n">
-        <v>10.72564672628227</v>
+        <v>10.0277423658901</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.97680357185818</v>
+        <v>86.22176056887632</v>
       </c>
       <c r="D9" t="n">
-        <v>11.24068504726897</v>
+        <v>10.01222675102823</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.92179270447579</v>
+        <v>83.41583387057061</v>
       </c>
       <c r="D10" t="n">
-        <v>12.6468289652963</v>
+        <v>9.296975231758887</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.39745983244748</v>
+        <v>82.44577586600057</v>
       </c>
       <c r="D11" t="n">
-        <v>11.10551518455581</v>
+        <v>10.53610046458006</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.68264448761279</v>
+        <v>82.88212489790884</v>
       </c>
       <c r="D12" t="n">
-        <v>11.28187540899991</v>
+        <v>10.8816764019013</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.85889557191814</v>
+        <v>81.59556362269113</v>
       </c>
       <c r="D13" t="n">
-        <v>10.17710490986938</v>
+        <v>12.17565159223478</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.8179739790355</v>
+        <v>78.64816095927966</v>
       </c>
       <c r="D14" t="n">
-        <v>11.07779689588856</v>
+        <v>11.26868323605992</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.49115095840318</v>
+        <v>78.25122321520249</v>
       </c>
       <c r="D15" t="n">
-        <v>11.67852210518283</v>
+        <v>12.39406272951842</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.68031946676453</v>
+        <v>78.40415620734849</v>
       </c>
       <c r="D16" t="n">
-        <v>11.57520349328292</v>
+        <v>11.48940043170055</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.42624006420242</v>
+        <v>76.13935877383098</v>
       </c>
       <c r="D17" t="n">
-        <v>12.03016985546763</v>
+        <v>9.610867805387342</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.86332780759878</v>
+        <v>75.63602273713161</v>
       </c>
       <c r="D18" t="n">
-        <v>11.83668096408074</v>
+        <v>11.67974743922863</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.99616606364488</v>
+        <v>75.90120434801008</v>
       </c>
       <c r="D19" t="n">
-        <v>11.28070213883057</v>
+        <v>11.3637333640921</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.50033105449661</v>
+        <v>74.04226893096452</v>
       </c>
       <c r="D20" t="n">
-        <v>10.40857716751304</v>
+        <v>9.680572404007417</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.52365942324512</v>
+        <v>73.05272384879835</v>
       </c>
       <c r="D21" t="n">
-        <v>10.57239101652736</v>
+        <v>11.06440042505671</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.8552745929735</v>
+        <v>70.92445974025071</v>
       </c>
       <c r="D22" t="n">
-        <v>12.00401357305593</v>
+        <v>10.07965069926876</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.80166464963877</v>
+        <v>70.03657437048327</v>
       </c>
       <c r="D23" t="n">
-        <v>11.77399192514698</v>
+        <v>11.26954710341468</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.36777457402184</v>
+        <v>70.22732079968335</v>
       </c>
       <c r="D24" t="n">
-        <v>11.08980763838286</v>
+        <v>9.641243791185179</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.00442785740773</v>
+        <v>68.92244398307618</v>
       </c>
       <c r="D25" t="n">
-        <v>11.59805697001098</v>
+        <v>11.15374372848808</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.62210778393042</v>
+        <v>68.83665317656398</v>
       </c>
       <c r="D26" t="n">
-        <v>11.5564213320713</v>
+        <v>10.34181016318293</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.61072569406458</v>
+        <v>67.56566821952021</v>
       </c>
       <c r="D27" t="n">
-        <v>9.645627900102991</v>
+        <v>11.84122632180477</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.47748791388887</v>
+        <v>64.61188409193367</v>
       </c>
       <c r="D28" t="n">
-        <v>10.94235249940045</v>
+        <v>11.21121559421705</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.51217578115212</v>
+        <v>65.52135613437675</v>
       </c>
       <c r="D29" t="n">
-        <v>11.06752213757232</v>
+        <v>11.01848237955135</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.8233488805715</v>
+        <v>62.40983765887962</v>
       </c>
       <c r="D30" t="n">
-        <v>10.27129263279302</v>
+        <v>10.65040731935505</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.49854200147023</v>
+        <v>59.62418373880266</v>
       </c>
       <c r="D31" t="n">
-        <v>10.16679267361863</v>
+        <v>9.93991022624534</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.28309791695271</v>
+        <v>62.62353019837612</v>
       </c>
       <c r="D32" t="n">
-        <v>10.82055868249229</v>
+        <v>10.57550749831689</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.2274519047985</v>
+        <v>58.8752152499356</v>
       </c>
       <c r="D33" t="n">
-        <v>10.73520828361975</v>
+        <v>11.23631285475176</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.60837973090456</v>
+        <v>58.35692579627042</v>
       </c>
       <c r="D34" t="n">
-        <v>10.18449925885423</v>
+        <v>10.22614494190613</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.0331329193418</v>
+        <v>58.78487626395088</v>
       </c>
       <c r="D35" t="n">
-        <v>12.79629927852378</v>
+        <v>11.20916620744036</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.56785060314964</v>
+        <v>58.8707326593883</v>
       </c>
       <c r="D36" t="n">
-        <v>12.23146513480516</v>
+        <v>11.1480234847818</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.8540426844889</v>
+        <v>55.78147135185243</v>
       </c>
       <c r="D37" t="n">
-        <v>10.93130863427673</v>
+        <v>9.833938694764479</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.45920055533916</v>
+        <v>55.24195026263693</v>
       </c>
       <c r="D38" t="n">
-        <v>11.25292007381746</v>
+        <v>9.239079088863434</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.3055759056036</v>
+        <v>54.00493071484783</v>
       </c>
       <c r="D39" t="n">
-        <v>10.06803545315745</v>
+        <v>11.32501458302426</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.5570045569149</v>
+        <v>51.74228552174255</v>
       </c>
       <c r="D40" t="n">
-        <v>10.22139186279555</v>
+        <v>10.73659643853885</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.77905914431192</v>
+        <v>51.74466667824858</v>
       </c>
       <c r="D41" t="n">
-        <v>10.73571781737692</v>
+        <v>11.16891024696671</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.86451126840738</v>
+        <v>52.0023137230918</v>
       </c>
       <c r="D42" t="n">
-        <v>11.09443170563682</v>
+        <v>11.2038666835238</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.77591658224862</v>
+        <v>48.91353645905136</v>
       </c>
       <c r="D43" t="n">
-        <v>10.78126203248226</v>
+        <v>11.16538526187033</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.26825293158863</v>
+        <v>48.77781452217553</v>
       </c>
       <c r="D44" t="n">
-        <v>11.76854553430279</v>
+        <v>10.14373434965131</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.75805364943961</v>
+        <v>47.53203466329474</v>
       </c>
       <c r="D45" t="n">
-        <v>11.30166176749881</v>
+        <v>10.85723888843742</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.74911169534884</v>
+        <v>47.92343304159773</v>
       </c>
       <c r="D46" t="n">
-        <v>11.02153509784293</v>
+        <v>10.47036351100103</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.88523821239292</v>
+        <v>44.72277773441611</v>
       </c>
       <c r="D47" t="n">
-        <v>10.91388161311715</v>
+        <v>10.95946619051165</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.75441494717445</v>
+        <v>44.61903026310861</v>
       </c>
       <c r="D48" t="n">
-        <v>11.60324761811577</v>
+        <v>10.30063092933575</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.04737739145702</v>
+        <v>43.92195211661161</v>
       </c>
       <c r="D49" t="n">
-        <v>11.29237462404554</v>
+        <v>10.35050156015777</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.66838402412246</v>
+        <v>42.27871669533871</v>
       </c>
       <c r="D50" t="n">
-        <v>10.72894425971658</v>
+        <v>9.403165148661657</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.95171844713303</v>
+        <v>41.20842144302001</v>
       </c>
       <c r="D51" t="n">
-        <v>9.480330231453891</v>
+        <v>10.27013085753444</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.82109380553183</v>
+        <v>39.9642597915818</v>
       </c>
       <c r="D52" t="n">
-        <v>10.0106120793121</v>
+        <v>9.90208129068967</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.41809975726461</v>
+        <v>38.93914169209545</v>
       </c>
       <c r="D53" t="n">
-        <v>10.20753090944757</v>
+        <v>10.5592130910609</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.29994598559252</v>
+        <v>37.24958131476884</v>
       </c>
       <c r="D54" t="n">
-        <v>11.41550880118485</v>
+        <v>10.33746072015677</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.85047047383031</v>
+        <v>36.87741767033562</v>
       </c>
       <c r="D55" t="n">
-        <v>10.41811937894285</v>
+        <v>11.08018737972927</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.47137198583997</v>
+        <v>36.01103744686614</v>
       </c>
       <c r="D56" t="n">
-        <v>10.6001552499596</v>
+        <v>10.35702055752773</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.15470762525022</v>
+        <v>36.03784489133864</v>
       </c>
       <c r="D57" t="n">
-        <v>11.50116907252667</v>
+        <v>9.954049220399773</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.17619257225495</v>
+        <v>33.22675921755622</v>
       </c>
       <c r="D58" t="n">
-        <v>10.42986661930021</v>
+        <v>10.73274653689618</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.30672680969864</v>
+        <v>32.21515462484999</v>
       </c>
       <c r="D59" t="n">
-        <v>10.84180384394932</v>
+        <v>10.46522269357491</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.64118008372098</v>
+        <v>31.75133930197599</v>
       </c>
       <c r="D60" t="n">
-        <v>9.991874596019752</v>
+        <v>10.5979548579111</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.3577393801693</v>
+        <v>30.08633130704884</v>
       </c>
       <c r="D61" t="n">
-        <v>11.12339106770048</v>
+        <v>10.42804674509808</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.89951579320283</v>
+        <v>31.11674346786047</v>
       </c>
       <c r="D62" t="n">
-        <v>12.35949176533425</v>
+        <v>9.872702700553411</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.17611065041384</v>
+        <v>28.83366286181082</v>
       </c>
       <c r="D63" t="n">
-        <v>10.15726630909331</v>
+        <v>11.30785852220285</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.66583981857082</v>
+        <v>30.03340626653974</v>
       </c>
       <c r="D64" t="n">
-        <v>10.55103475612512</v>
+        <v>8.90350786448286</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.58698011819836</v>
+        <v>27.36540079154674</v>
       </c>
       <c r="D65" t="n">
-        <v>10.2334762978046</v>
+        <v>11.5961972925397</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.45848353980308</v>
+        <v>25.97772543625755</v>
       </c>
       <c r="D66" t="n">
-        <v>11.06364908209558</v>
+        <v>10.8709397250643</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.46656029051885</v>
+        <v>23.27093708031122</v>
       </c>
       <c r="D67" t="n">
-        <v>9.622529266388309</v>
+        <v>11.51752336636231</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.58345211035711</v>
+        <v>25.22660430753317</v>
       </c>
       <c r="D68" t="n">
-        <v>10.4395469722075</v>
+        <v>10.38572542159468</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.28457674502111</v>
+        <v>23.8216760538698</v>
       </c>
       <c r="D69" t="n">
-        <v>11.97598420432251</v>
+        <v>11.27796237771545</v>
       </c>
     </row>
   </sheetData>
